--- a/exports/genes/tukeys-multicomp-table.xlsx
+++ b/exports/genes/tukeys-multicomp-table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaare/Github/matrinem/exports/genes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdt/Documents/GitHub/2022_matrinem_thesis/exports/genes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D3B6C8-B2DB-D94E-9F20-1C40D4B3EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC1870-7262-9F46-B8C8-25A74497927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{E4B3B0C4-9794-1D4C-AEE6-38B6C6775610}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>genes</t>
   </si>
@@ -62,67 +62,65 @@
     <t>p.adj.signif</t>
   </si>
   <si>
-    <t>cldn15</t>
-  </si>
-  <si>
     <t>VANCO-BF</t>
   </si>
   <si>
     <t>VANCO-SM</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>VANCO-FVF</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>IL1b</t>
-  </si>
-  <si>
     <t>Ocld1</t>
   </si>
   <si>
-    <t>REG3G</t>
-  </si>
-  <si>
-    <t>TGFb</t>
-  </si>
-  <si>
-    <t>TJP1</t>
-  </si>
-  <si>
-    <t>VEGFa</t>
-  </si>
-  <si>
-    <t>Showing 1 to 10 of 10 entries, 10 total columns</t>
-  </si>
-  <si>
     <t>Group 1</t>
   </si>
   <si>
     <t>Group 2</t>
   </si>
   <si>
-    <t>Effect estimate</t>
-  </si>
-  <si>
-    <t>CI low</t>
-  </si>
-  <si>
-    <t>CI high</t>
-  </si>
-  <si>
     <t>P-value adj.</t>
+  </si>
+  <si>
+    <t>CI 2.5%</t>
+  </si>
+  <si>
+    <t>CI 97.5%</t>
+  </si>
+  <si>
+    <t>Cldn15</t>
+  </si>
+  <si>
+    <t>Il1b</t>
+  </si>
+  <si>
+    <t>Reg3g</t>
+  </si>
+  <si>
+    <t>Tgfb</t>
+  </si>
+  <si>
+    <t>Tjp1</t>
+  </si>
+  <si>
+    <t>Vegfa</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>Estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,18 +138,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Lucida Grande"/>
@@ -178,17 +177,186 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Grande"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -199,6 +367,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE0FEFE2-9132-0B48-B8A8-85199F966FA0}" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+  <autoFilter ref="A2:G12" xr:uid="{BE0FEFE2-9132-0B48-B8A8-85199F966FA0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B9969A07-9D27-484E-A22A-761CD719C03E}" name="Genes" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{81B8209E-2FE5-6246-8A6F-465C8447356C}" name="Group 1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B62940F9-0326-6C4A-85D3-219E787D1059}" name="Group 2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4DE0EE5A-3826-914B-9292-0920C1449526}" name="Estimate" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3B214BDE-D26B-BE40-BACF-DF0526917D0A}" name="CI 2.5%" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3BC7D05F-199C-6A4F-8E4C-A3CE33BF945B}" name="CI 97.5%" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{426C0272-395E-6F44-B9EC-44E020DF284F}" name="P-value adj." dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,18 +682,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296B8D0-B129-1347-A5AF-95B1BE1FA3B0}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -540,326 +727,274 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.73617089999999996</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.2639579000000005E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.38970215</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.88150379999999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.24514142</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.51786614</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.9100000000000003E-3</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-1.3819402000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-2.7344837210000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-2.9396660000000002E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.68217380000000005</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.139937229</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.22441033</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.23E-2</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-3.7846845</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-6.1084196349999997</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-1.4609494199999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.41E-3</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.274861</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.18244512299999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.36727686</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.06E-2</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0338205</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.8809259999999998E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.06376004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.0588417000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.29851809200000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.81916535</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.3456748999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.51133991499999998</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.1800098700000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.73617089999999996</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.2639579000000005E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.38970215</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.88150379999999995</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.24514142</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.51786614</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5.9100000000000003E-3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1.3819402000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-2.7344837210000001</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-2.9396660000000002E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.68217380000000005</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.139937229</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.22441033</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.23E-2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-3.7846845</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-6.1084196349999997</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-1.4609494199999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1.41E-3</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.274861</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.18244512299999999</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.36727686</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.06E-2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0338205</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.8809259999999998E-3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2.06376004</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0588417000000001</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.29851809200000001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.81916535</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5.6600000000000001E-3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.3456748999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.51133991499999998</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.1800098700000001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="5">
         <v>0.82539289999999998</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" s="5">
         <v>2.0924538999999999E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="F12" s="5">
         <v>1.62986118</v>
       </c>
-      <c r="H12" s="3">
+      <c r="G12" s="4">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>